--- a/rezultati/P2_tok2_Jun2.xlsx
+++ b/rezultati/P2_tok2_Jun2.xlsx
@@ -1,55 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
-  <si>
-    <t>Индекс</t>
-  </si>
-  <si>
-    <t>Презиме и име</t>
-  </si>
-  <si>
-    <t>Задатак 1 (0-10)</t>
-  </si>
-  <si>
-    <t>Задатак 2 (0-10)</t>
-  </si>
-  <si>
-    <t>Задатак 3 (0-10)</t>
-  </si>
-  <si>
-    <t>Задатак 4 (0-10)</t>
-  </si>
-  <si>
-    <t>ЈУН2 - Задаци укупно (0-50)</t>
-  </si>
-  <si>
-    <t>ЈУН1 - Задаци (0-50)</t>
-  </si>
-  <si>
-    <t>ЈУН1 - Теорија (0-50)</t>
-  </si>
-  <si>
-    <t>ЈУН2 - Теорија – бодови (0-50)</t>
-  </si>
-  <si>
-    <t>Укупно (0-100)</t>
-  </si>
-  <si>
-    <t>Укупно (скалирано)</t>
-  </si>
-  <si>
-    <t>Оцена</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="238">
+  <si>
+    <t xml:space="preserve">Индекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Презиме и име</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задатак 1 (0-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задатак 2 (0-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задатак 3 (0-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задатак 4 (0-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЈУН2 - Задаци укупно (0-50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЈУН1 - Задаци (0-50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЈУН1 - Теорија (0-50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЈУН2 - Теорија – бодови (0-50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укупно (0-100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укупно (скалирано)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оцена</t>
   </si>
   <si>
     <t xml:space="preserve"> 42/2020</t>
@@ -731,25 +740,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -761,1230 +784,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="59" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ffffffff"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="535353"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
-  </a:objectDefaults>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S187"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.51562" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.96094" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.77344" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.61719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33594" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.23438" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.51562" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.0469" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
-    <col min="14" max="19" width="11.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.5" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.9" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
+    <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4"/>
@@ -1994,42 +967,42 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="12.9" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="6">
-        <f>ROUND((C2+D2+E2+F2)*5/4,2)</f>
+      <c r="G2" s="6" t="n">
+        <f aca="false">ROUND((C2+D2+E2+F2)*5/4,2)</f>
         <v>45.63</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6">
+      <c r="J2" s="6" t="n">
         <v>36.5</v>
       </c>
-      <c r="K2" s="6">
-        <f>G2+J2</f>
+      <c r="K2" s="6" t="n">
+        <f aca="false">G2+J2</f>
         <v>82.13</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="7" t="n">
         <v>9</v>
       </c>
       <c r="N2" s="4"/>
@@ -2039,42 +1012,42 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="12.9" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>8.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
-        <f>ROUND((C3+D3+E3+F3)*5/4,2)</f>
+      <c r="G3" s="6" t="n">
+        <f aca="false">ROUND((C3+D3+E3+F3)*5/4,2)</f>
         <v>46.88</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6">
+      <c r="J3" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="K3" s="6">
-        <f>G3+J3</f>
+      <c r="K3" s="6" t="n">
+        <f aca="false">G3+J3</f>
         <v>75.88</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N3" s="4"/>
@@ -2084,42 +1057,42 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="12.9" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
-        <f>ROUND((C4+D4+E4+F4)*5/4,2)</f>
+      <c r="G4" s="6" t="n">
+        <f aca="false">ROUND((C4+D4+E4+F4)*5/4,2)</f>
         <v>50</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="K4" s="6">
-        <f>G4+J4+H4+I4</f>
+      <c r="K4" s="6" t="n">
+        <f aca="false">G4+J4+H4+I4</f>
         <v>75</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N4" s="4"/>
@@ -2129,42 +1102,42 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="12.9" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
-        <f>ROUND((C5+D5+E5+F5)*5/4,2)</f>
+      <c r="G5" s="6" t="n">
+        <f aca="false">ROUND((C5+D5+E5+F5)*5/4,2)</f>
         <v>50</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="I5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <f>G5+J5+H5+I5</f>
+      <c r="K5" s="6" t="n">
+        <f aca="false">G5+J5+H5+I5</f>
         <v>75</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N5" s="4"/>
@@ -2174,42 +1147,42 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="6">
-        <f>ROUND((C6+D6+E6+F6)*5/4,2)</f>
+      <c r="G6" s="6" t="n">
+        <f aca="false">ROUND((C6+D6+E6+F6)*5/4,2)</f>
         <v>46.25</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="I6" s="6" t="n">
         <v>24</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <f>G6+J6+H6+I6</f>
+      <c r="K6" s="6" t="n">
+        <f aca="false">G6+J6+H6+I6</f>
         <v>70.25</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N6" s="4"/>
@@ -2219,36 +1192,36 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="6">
-        <f>ROUND((C7+D7+E7+F7)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="6" t="n">
+        <f aca="false">ROUND((C7+D7+E7+F7)*5/4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>37.5</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6" t="n">
         <v>32.5</v>
       </c>
-      <c r="K7" s="6">
-        <f>G7+J7+H7</f>
+      <c r="K7" s="6" t="n">
+        <f aca="false">G7+J7+H7</f>
         <v>70</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N7" s="4"/>
@@ -2258,42 +1231,42 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="6">
-        <f>ROUND((C8+D8+E8+F8)*5/4,2)</f>
+      <c r="G8" s="6" t="n">
+        <f aca="false">ROUND((C8+D8+E8+F8)*5/4,2)</f>
         <v>38.75</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="K8" s="6">
-        <f>G8+J8</f>
+      <c r="K8" s="6" t="n">
+        <f aca="false">G8+J8</f>
         <v>69.75</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="7" t="n">
         <v>8</v>
       </c>
       <c r="N8" s="4"/>
@@ -2303,42 +1276,42 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" ht="12.9" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f>ROUND((C9+D9+E9+F9)*5/4,2)</f>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <f aca="false">ROUND((C9+D9+E9+F9)*5/4,2)</f>
         <v>25</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6" t="n">
         <v>41.5</v>
       </c>
-      <c r="K9" s="6">
-        <f>G9+J9</f>
+      <c r="K9" s="6" t="n">
+        <f aca="false">G9+J9</f>
         <v>66.5</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="N9" s="4"/>
@@ -2348,42 +1321,42 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
-        <f>ROUND((C10+D10+E10+F10)*5/4,2)</f>
+      <c r="G10" s="6" t="n">
+        <f aca="false">ROUND((C10+D10+E10+F10)*5/4,2)</f>
         <v>43.75</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="K10" s="6">
-        <f>G10+J10</f>
+      <c r="K10" s="6" t="n">
+        <f aca="false">G10+J10</f>
         <v>63.75</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="N10" s="4"/>
@@ -2393,42 +1366,42 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" ht="12.9" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="6">
-        <f>ROUND((C11+D11+E11+F11)*5/4,2)</f>
+      <c r="G11" s="6" t="n">
+        <f aca="false">ROUND((C11+D11+E11+F11)*5/4,2)</f>
         <v>31.25</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="K11" s="6">
-        <f>G11+J11</f>
+      <c r="K11" s="6" t="n">
+        <f aca="false">G11+J11</f>
         <v>62.75</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="7" t="n">
         <v>7</v>
       </c>
       <c r="N11" s="4"/>
@@ -2438,42 +1411,42 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" ht="12.9" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
-        <f>ROUND((C12+D12+E12+F12)*5/4,2)</f>
+      <c r="G12" s="6" t="n">
+        <f aca="false">ROUND((C12+D12+E12+F12)*5/4,2)</f>
         <v>37.5</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="6">
-        <f>G12+J12</f>
+      <c r="K12" s="6" t="n">
+        <f aca="false">G12+J12</f>
         <v>62.5</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="N12" s="4"/>
@@ -2483,42 +1456,42 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" ht="12.9" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="6">
-        <f>ROUND((C13+D13+E13+F13)*5/4,2)</f>
+      <c r="G13" s="6" t="n">
+        <f aca="false">ROUND((C13+D13+E13+F13)*5/4,2)</f>
         <v>25</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="K13" s="6">
-        <f>G13+J13</f>
+      <c r="K13" s="6" t="n">
+        <f aca="false">G13+J13</f>
         <v>60</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="7" t="n">
         <v>7</v>
       </c>
       <c r="N13" s="4"/>
@@ -2528,42 +1501,42 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" ht="12.9" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
-        <f>ROUND((C14+D14+E14+F14)*5/4,2)</f>
+      <c r="G14" s="6" t="n">
+        <f aca="false">ROUND((C14+D14+E14+F14)*5/4,2)</f>
         <v>25</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="6">
+      <c r="I14" s="6" t="n">
         <v>31</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
-        <f>G14+J14+I14</f>
+      <c r="K14" s="6" t="n">
+        <f aca="false">G14+J14+I14</f>
         <v>56</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="4"/>
@@ -2573,42 +1546,42 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" ht="12.9" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G15" s="6">
-        <f>ROUND((C15+D15+E15+F15)*5/4,2)</f>
+      <c r="G15" s="6" t="n">
+        <f aca="false">ROUND((C15+D15+E15+F15)*5/4,2)</f>
         <v>35.63</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="6">
-        <f>G15+J15</f>
+      <c r="K15" s="6" t="n">
+        <f aca="false">G15+J15</f>
         <v>55.63</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="4"/>
@@ -2618,42 +1591,42 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" ht="12.9" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f>ROUND((C16+D16+E16+F16)*5/4,2)</f>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">ROUND((C16+D16+E16+F16)*5/4,2)</f>
         <v>12.5</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="6">
+      <c r="I16" s="6" t="n">
         <v>43</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6">
-        <f>G16+J16+I16</f>
+      <c r="K16" s="6" t="n">
+        <f aca="false">G16+J16+I16</f>
         <v>55.5</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="4"/>
@@ -2663,42 +1636,42 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" ht="12.9" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <f>ROUND((C17+D17+E17+F17)*5/4,2)</f>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <f aca="false">ROUND((C17+D17+E17+F17)*5/4,2)</f>
         <v>19.38</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="6">
+      <c r="I17" s="6" t="n">
         <v>36</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
-        <f>G17+J17+I17</f>
+      <c r="K17" s="6" t="n">
+        <f aca="false">G17+J17+I17</f>
         <v>55.38</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="4"/>
@@ -2708,36 +1681,36 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" ht="12.9" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="6">
-        <f>ROUND((C18+D18+E18+F18)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="6" t="n">
+        <f aca="false">ROUND((C18+D18+E18+F18)*5/4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="K18" s="6">
-        <f>G18+J18+H18</f>
+      <c r="K18" s="6" t="n">
+        <f aca="false">G18+J18+H18</f>
         <v>55</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="5" t="n">
         <v>6</v>
       </c>
       <c r="N18" s="5"/>
@@ -2747,42 +1720,42 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" ht="12.9" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f>ROUND((C19+D19+E19+F19)*5/4,2)</f>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">ROUND((C19+D19+E19+F19)*5/4,2)</f>
         <v>25</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="6">
+      <c r="I19" s="6" t="n">
         <v>28</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="6">
-        <f>G19+J19+I19</f>
+      <c r="K19" s="6" t="n">
+        <f aca="false">G19+J19+I19</f>
         <v>53</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="4"/>
@@ -2792,36 +1765,36 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" ht="12.9" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="6">
-        <f>ROUND((C20+D20+E20+F20)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="6" t="n">
+        <f aca="false">ROUND((C20+D20+E20+F20)*5/4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>22.5</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="K20" s="6">
-        <f>G20+J20+H20</f>
+      <c r="K20" s="6" t="n">
+        <f aca="false">G20+J20+H20</f>
         <v>51.5</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="5" t="n">
         <v>6</v>
       </c>
       <c r="N20" s="5"/>
@@ -2831,42 +1804,42 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" ht="12.9" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="5" t="n">
         <v>8.5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f>ROUND((C21+D21+E21+F21)*5/4,2)</f>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">ROUND((C21+D21+E21+F21)*5/4,2)</f>
         <v>35.63</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="K21" s="6">
-        <f>G21+J21</f>
+      <c r="K21" s="6" t="n">
+        <f aca="false">G21+J21</f>
         <v>50.63</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N21" s="4"/>
@@ -2876,36 +1849,36 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" ht="12.9" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="6">
-        <f>ROUND((C22+D22+E22+F22)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="6" t="n">
+        <f aca="false">ROUND((C22+D22+E22+F22)*5/4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
         <v>18.75</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="K22" s="6">
-        <f>G22+J22+H22</f>
+      <c r="K22" s="6" t="n">
+        <f aca="false">G22+J22+H22</f>
         <v>49.75</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N22" s="4"/>
@@ -2915,42 +1888,42 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" ht="12.9" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <f>ROUND((C23+D23+E23+F23)*5/4,2)</f>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">ROUND((C23+D23+E23+F23)*5/4,2)</f>
         <v>23.75</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="K23" s="6">
-        <f>G23+J23</f>
+      <c r="K23" s="6" t="n">
+        <f aca="false">G23+J23</f>
         <v>49.75</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N23" s="4"/>
@@ -2960,36 +1933,36 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" ht="12.9" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f>ROUND((C24+D24+E24+F24)*5/4,2)</f>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">ROUND((C24+D24+E24+F24)*5/4,2)</f>
         <v>22.5</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="6">
+      <c r="I24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="6">
-        <f>G24+J24+I24</f>
+      <c r="K24" s="6" t="n">
+        <f aca="false">G24+J24+I24</f>
         <v>46.5</v>
       </c>
       <c r="L24" s="4"/>
@@ -3001,36 +1974,36 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" ht="12.9" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <f>ROUND((C25+D25+E25+F25)*5/4,2)</f>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">ROUND((C25+D25+E25+F25)*5/4,2)</f>
         <v>31.25</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="K25" s="6">
-        <f>G25+J25</f>
+      <c r="K25" s="6" t="n">
+        <f aca="false">G25+J25</f>
         <v>46.25</v>
       </c>
       <c r="L25" s="6"/>
@@ -3042,36 +2015,36 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" ht="12.9" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <f>ROUND((C26+D26+E26+F26)*5/4,2)</f>
+      <c r="D26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">ROUND((C26+D26+E26+F26)*5/4,2)</f>
         <v>11.88</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="6" t="n">
         <v>34</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="6">
-        <f>G26+J26+I26</f>
+      <c r="K26" s="6" t="n">
+        <f aca="false">G26+J26+I26</f>
         <v>45.88</v>
       </c>
       <c r="L26" s="6"/>
@@ -3083,36 +2056,36 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" ht="12.9" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f>ROUND((C27+D27+E27+F27)*5/4,2)</f>
+      <c r="D27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">ROUND((C27+D27+E27+F27)*5/4,2)</f>
         <v>12.5</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="6">
+      <c r="I27" s="6" t="n">
         <v>24</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="6">
-        <f>G27+J27+I27</f>
+      <c r="K27" s="6" t="n">
+        <f aca="false">G27+J27+I27</f>
         <v>36.5</v>
       </c>
       <c r="L27" s="6"/>
@@ -3124,36 +2097,36 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" ht="12.9" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="6">
-        <f>ROUND((C28+D28+E28+F28)*5/4,2)</f>
+      <c r="G28" s="6" t="n">
+        <f aca="false">ROUND((C28+D28+E28+F28)*5/4,2)</f>
         <v>15</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6" t="n">
         <v>12.5</v>
       </c>
-      <c r="K28" s="6">
-        <f>G28+J28</f>
+      <c r="K28" s="6" t="n">
+        <f aca="false">G28+J28</f>
         <v>27.5</v>
       </c>
       <c r="L28" s="6"/>
@@ -3165,36 +2138,36 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" ht="12.9" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <f>ROUND((C29+D29+E29+F29)*5/4,2)</f>
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">ROUND((C29+D29+E29+F29)*5/4,2)</f>
         <v>12.5</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="J29" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="K29" s="6">
-        <f>G29+J29</f>
+      <c r="K29" s="6" t="n">
+        <f aca="false">G29+J29</f>
         <v>27.5</v>
       </c>
       <c r="L29" s="6"/>
@@ -3206,34 +2179,44 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" ht="12.9" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6">
-        <f>ROUND((C30+D30+E30+F30)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="C30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">ROUND((C30+D30+E30+F30)*5/4,2)</f>
+        <v>30</v>
+      </c>
+      <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6" t="n">
         <v>27.5</v>
       </c>
-      <c r="K30" s="6">
-        <f>G30+J30</f>
-        <v>27.5</v>
+      <c r="K30" s="6" t="n">
+        <f aca="false">G30+J30</f>
+        <v>57.5</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -3241,36 +2224,36 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" ht="12.9" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="C31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="6">
-        <f>ROUND((C31+D31+E31+F31)*5/4,2)</f>
+      <c r="G31" s="6" t="n">
+        <f aca="false">ROUND((C31+D31+E31+F31)*5/4,2)</f>
         <v>7.5</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="K31" s="6">
-        <f>G31+J31</f>
+      <c r="K31" s="6" t="n">
+        <f aca="false">G31+J31</f>
         <v>22.5</v>
       </c>
       <c r="L31" s="6"/>
@@ -3282,36 +2265,36 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" ht="12.9" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <f>ROUND((C32+D32+E32+F32)*5/4,2)</f>
+      <c r="E32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <f aca="false">ROUND((C32+D32+E32+F32)*5/4,2)</f>
         <v>15</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="6">
+      <c r="I32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <f>G32+J32</f>
+      <c r="K32" s="6" t="n">
+        <f aca="false">G32+J32</f>
         <v>15</v>
       </c>
       <c r="L32" s="6"/>
@@ -3323,38 +2306,38 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" ht="12.9" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <f>ROUND((C33+D33+E33+F33)*5/4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="C33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <f aca="false">ROUND((C33+D33+E33+F33)*5/4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="K33" s="6">
-        <f>G33+J33</f>
+      <c r="K33" s="6" t="n">
+        <f aca="false">G33+J33</f>
         <v>10</v>
       </c>
       <c r="L33" s="6"/>
@@ -3366,26 +2349,26 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" ht="12.9" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="6">
-        <f>ROUND((C34+D34+E34+F34)*5/4,2)</f>
+      <c r="G34" s="6" t="n">
+        <f aca="false">ROUND((C34+D34+E34+F34)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6">
-        <f>G34+J34</f>
+      <c r="K34" s="6" t="n">
+        <f aca="false">G34+J34</f>
         <v>0</v>
       </c>
       <c r="L34" s="6"/>
@@ -3397,26 +2380,26 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" ht="12.9" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="6">
-        <f>ROUND((C35+D35+E35+F35)*5/4,2)</f>
+      <c r="G35" s="6" t="n">
+        <f aca="false">ROUND((C35+D35+E35+F35)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6">
-        <f>G35+J35</f>
+      <c r="K35" s="6" t="n">
+        <f aca="false">G35+J35</f>
         <v>0</v>
       </c>
       <c r="L35" s="6"/>
@@ -3428,26 +2411,26 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" ht="12.9" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="6">
-        <f>ROUND((C36+D36+E36+F36)*5/4,2)</f>
+      <c r="G36" s="6" t="n">
+        <f aca="false">ROUND((C36+D36+E36+F36)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6">
-        <f>G36+J36</f>
+      <c r="K36" s="6" t="n">
+        <f aca="false">G36+J36</f>
         <v>0</v>
       </c>
       <c r="L36" s="6"/>
@@ -3459,26 +2442,26 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" ht="12.9" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="6">
-        <f>ROUND((C37+D37+E37+F37)*5/4,2)</f>
+      <c r="G37" s="6" t="n">
+        <f aca="false">ROUND((C37+D37+E37+F37)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6">
-        <f>G37+J37</f>
+      <c r="K37" s="6" t="n">
+        <f aca="false">G37+J37</f>
         <v>0</v>
       </c>
       <c r="L37" s="6"/>
@@ -3490,26 +2473,26 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" ht="12.9" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="6">
-        <f>ROUND((C38+D38+E38+F38)*5/4,2)</f>
+      <c r="G38" s="6" t="n">
+        <f aca="false">ROUND((C38+D38+E38+F38)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6">
-        <f>G38+J38</f>
+      <c r="K38" s="6" t="n">
+        <f aca="false">G38+J38</f>
         <v>0</v>
       </c>
       <c r="L38" s="6"/>
@@ -3521,26 +2504,26 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" ht="12.9" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="6">
-        <f>ROUND((C39+D39+E39+F39)*5/4,2)</f>
+      <c r="G39" s="6" t="n">
+        <f aca="false">ROUND((C39+D39+E39+F39)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6">
-        <f>G39+J39</f>
+      <c r="K39" s="6" t="n">
+        <f aca="false">G39+J39</f>
         <v>0</v>
       </c>
       <c r="L39" s="6"/>
@@ -3552,26 +2535,26 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" ht="12.9" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="6">
-        <f>ROUND((C40+D40+E40+F40)*5/4,2)</f>
+      <c r="G40" s="6" t="n">
+        <f aca="false">ROUND((C40+D40+E40+F40)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6">
-        <f>G40+J40</f>
+      <c r="K40" s="6" t="n">
+        <f aca="false">G40+J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="6"/>
@@ -3583,26 +2566,26 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" ht="12.9" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="6">
-        <f>ROUND((C41+D41+E41+F41)*5/4,2)</f>
+      <c r="G41" s="6" t="n">
+        <f aca="false">ROUND((C41+D41+E41+F41)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6">
-        <f>G41+J41</f>
+      <c r="K41" s="6" t="n">
+        <f aca="false">G41+J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="6"/>
@@ -3614,26 +2597,26 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" ht="12.9" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="6">
-        <f>ROUND((C42+D42+E42+F42)*5/4,2)</f>
+      <c r="G42" s="6" t="n">
+        <f aca="false">ROUND((C42+D42+E42+F42)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6">
-        <f>G42+J42</f>
+      <c r="K42" s="6" t="n">
+        <f aca="false">G42+J42</f>
         <v>0</v>
       </c>
       <c r="L42" s="6"/>
@@ -3645,34 +2628,34 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" ht="12.9" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <f>ROUND((C43+D43+E43+F43)*5/4,2)</f>
+      <c r="C43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <f aca="false">ROUND((C43+D43+E43+F43)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <f>G43+J43</f>
+      <c r="K43" s="6" t="n">
+        <f aca="false">G43+J43</f>
         <v>0</v>
       </c>
       <c r="L43" s="6"/>
@@ -3684,26 +2667,26 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" ht="12.9" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="6">
-        <f>ROUND((C44+D44+E44+F44)*5/4,2)</f>
+      <c r="G44" s="6" t="n">
+        <f aca="false">ROUND((C44+D44+E44+F44)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6">
-        <f>G44+J44</f>
+      <c r="K44" s="6" t="n">
+        <f aca="false">G44+J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="6"/>
@@ -3715,26 +2698,26 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" ht="12.9" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="6">
-        <f>ROUND((C45+D45+E45+F45)*5/4,2)</f>
+      <c r="G45" s="6" t="n">
+        <f aca="false">ROUND((C45+D45+E45+F45)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6">
-        <f>G45+J45</f>
+      <c r="K45" s="6" t="n">
+        <f aca="false">G45+J45</f>
         <v>0</v>
       </c>
       <c r="L45" s="6"/>
@@ -3746,26 +2729,26 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" ht="12.9" customHeight="1">
-      <c r="A46" t="s" s="2">
+    <row r="46" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="6">
-        <f>ROUND((C46+D46+E46+F46)*5/4,2)</f>
+      <c r="G46" s="6" t="n">
+        <f aca="false">ROUND((C46+D46+E46+F46)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6">
-        <f>G46+J46</f>
+      <c r="K46" s="6" t="n">
+        <f aca="false">G46+J46</f>
         <v>0</v>
       </c>
       <c r="L46" s="6"/>
@@ -3777,26 +2760,26 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" ht="12.9" customHeight="1">
-      <c r="A47" t="s" s="2">
+    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="6">
-        <f>ROUND((C47+D47+E47+F47)*5/4,2)</f>
+      <c r="G47" s="6" t="n">
+        <f aca="false">ROUND((C47+D47+E47+F47)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6">
-        <f>G47+J47</f>
+      <c r="K47" s="6" t="n">
+        <f aca="false">G47+J47</f>
         <v>0</v>
       </c>
       <c r="L47" s="6"/>
@@ -3808,26 +2791,26 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" ht="12.9" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="6">
-        <f>ROUND((C48+D48+E48+F48)*5/4,2)</f>
+      <c r="G48" s="6" t="n">
+        <f aca="false">ROUND((C48+D48+E48+F48)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6">
-        <f>G48+J48</f>
+      <c r="K48" s="6" t="n">
+        <f aca="false">G48+J48</f>
         <v>0</v>
       </c>
       <c r="L48" s="6"/>
@@ -3839,26 +2822,26 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" ht="12.9" customHeight="1">
-      <c r="A49" t="s" s="2">
+    <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="6">
-        <f>ROUND((C49+D49+E49+F49)*5/4,2)</f>
+      <c r="G49" s="6" t="n">
+        <f aca="false">ROUND((C49+D49+E49+F49)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6">
-        <f>G49+J49</f>
+      <c r="K49" s="6" t="n">
+        <f aca="false">G49+J49</f>
         <v>0</v>
       </c>
       <c r="L49" s="6"/>
@@ -3870,26 +2853,26 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" ht="12.9" customHeight="1">
-      <c r="A50" t="s" s="2">
+    <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="6">
-        <f>ROUND((C50+D50+E50+F50)*5/4,2)</f>
+      <c r="G50" s="6" t="n">
+        <f aca="false">ROUND((C50+D50+E50+F50)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6">
-        <f>G50+J50</f>
+      <c r="K50" s="6" t="n">
+        <f aca="false">G50+J50</f>
         <v>0</v>
       </c>
       <c r="L50" s="6"/>
@@ -3901,34 +2884,34 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" ht="12.9" customHeight="1">
-      <c r="A51" t="s" s="2">
+    <row r="51" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <f>ROUND((C51+D51+E51+F51)*5/4,2)</f>
+      <c r="C51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <f aca="false">ROUND((C51+D51+E51+F51)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6">
-        <f>G51+J51</f>
+      <c r="K51" s="6" t="n">
+        <f aca="false">G51+J51</f>
         <v>0</v>
       </c>
       <c r="L51" s="6"/>
@@ -3940,26 +2923,26 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" ht="12.9" customHeight="1">
-      <c r="A52" t="s" s="2">
+    <row r="52" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="6">
-        <f>ROUND((C52+D52+E52+F52)*5/4,2)</f>
+      <c r="G52" s="6" t="n">
+        <f aca="false">ROUND((C52+D52+E52+F52)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6">
-        <f>G52+J52</f>
+      <c r="K52" s="6" t="n">
+        <f aca="false">G52+J52</f>
         <v>0</v>
       </c>
       <c r="L52" s="6"/>
@@ -3971,26 +2954,26 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" ht="12.9" customHeight="1">
-      <c r="A53" t="s" s="2">
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="6">
-        <f>ROUND((C53+D53+E53+F53)*5/4,2)</f>
+      <c r="G53" s="6" t="n">
+        <f aca="false">ROUND((C53+D53+E53+F53)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6">
-        <f>G53+J53</f>
+      <c r="K53" s="6" t="n">
+        <f aca="false">G53+J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="6"/>
@@ -4002,26 +2985,26 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" ht="12.9" customHeight="1">
-      <c r="A54" t="s" s="2">
+    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="6">
-        <f>ROUND((C54+D54+E54+F54)*5/4,2)</f>
+      <c r="G54" s="6" t="n">
+        <f aca="false">ROUND((C54+D54+E54+F54)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6">
-        <f>G54+J54</f>
+      <c r="K54" s="6" t="n">
+        <f aca="false">G54+J54</f>
         <v>0</v>
       </c>
       <c r="L54" s="6"/>
@@ -4033,26 +3016,26 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" ht="12.9" customHeight="1">
-      <c r="A55" t="s" s="2">
+    <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="6">
-        <f>ROUND((C55+D55+E55+F55)*5/4,2)</f>
+      <c r="G55" s="6" t="n">
+        <f aca="false">ROUND((C55+D55+E55+F55)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6">
-        <f>G55+J55</f>
+      <c r="K55" s="6" t="n">
+        <f aca="false">G55+J55</f>
         <v>0</v>
       </c>
       <c r="L55" s="6"/>
@@ -4064,26 +3047,26 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" ht="12.9" customHeight="1">
-      <c r="A56" t="s" s="2">
+    <row r="56" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="6">
-        <f>ROUND((C56+D56+E56+F56)*5/4,2)</f>
+      <c r="G56" s="6" t="n">
+        <f aca="false">ROUND((C56+D56+E56+F56)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6">
-        <f>G56+J56</f>
+      <c r="K56" s="6" t="n">
+        <f aca="false">G56+J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="9"/>
@@ -4095,26 +3078,26 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" ht="12.9" customHeight="1">
-      <c r="A57" t="s" s="2">
+    <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B57" t="s" s="3">
+      <c r="B57" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="6">
-        <f>ROUND((C57+D57+E57+F57)*5/4,2)</f>
+      <c r="G57" s="6" t="n">
+        <f aca="false">ROUND((C57+D57+E57+F57)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6">
-        <f>G57+J57</f>
+      <c r="K57" s="6" t="n">
+        <f aca="false">G57+J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="9"/>
@@ -4126,26 +3109,26 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" ht="12.9" customHeight="1">
-      <c r="A58" t="s" s="2">
+    <row r="58" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="6">
-        <f>ROUND((C58+D58+E58+F58)*5/4,2)</f>
+      <c r="G58" s="6" t="n">
+        <f aca="false">ROUND((C58+D58+E58+F58)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6">
-        <f>G58+J58</f>
+      <c r="K58" s="6" t="n">
+        <f aca="false">G58+J58</f>
         <v>0</v>
       </c>
       <c r="L58" s="9"/>
@@ -4157,26 +3140,26 @@
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" ht="12.9" customHeight="1">
-      <c r="A59" t="s" s="2">
+    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="6">
-        <f>ROUND((C59+D59+E59+F59)*5/4,2)</f>
+      <c r="G59" s="6" t="n">
+        <f aca="false">ROUND((C59+D59+E59+F59)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="6">
-        <f>G59+J59</f>
+      <c r="K59" s="6" t="n">
+        <f aca="false">G59+J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="9"/>
@@ -4188,26 +3171,26 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" ht="12.9" customHeight="1">
-      <c r="A60" t="s" s="2">
+    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="6">
-        <f>ROUND((C60+D60+E60+F60)*5/4,2)</f>
+      <c r="G60" s="6" t="n">
+        <f aca="false">ROUND((C60+D60+E60+F60)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="6">
-        <f>G60+J60</f>
+      <c r="K60" s="6" t="n">
+        <f aca="false">G60+J60</f>
         <v>0</v>
       </c>
       <c r="L60" s="9"/>
@@ -4219,34 +3202,34 @@
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" ht="12.9" customHeight="1">
-      <c r="A61" t="s" s="2">
+    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="5">
-        <v>0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
-        <f>ROUND((C61+D61+E61+F61)*5/4,2)</f>
+      <c r="C61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <f aca="false">ROUND((C61+D61+E61+F61)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="6">
-        <f>G61+J61</f>
+      <c r="K61" s="6" t="n">
+        <f aca="false">G61+J61</f>
         <v>0</v>
       </c>
       <c r="L61" s="9"/>
@@ -4258,26 +3241,26 @@
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" ht="12.9" customHeight="1">
-      <c r="A62" t="s" s="2">
+    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="6">
-        <f>ROUND((C62+D62+E62+F62)*5/4,2)</f>
+      <c r="G62" s="6" t="n">
+        <f aca="false">ROUND((C62+D62+E62+F62)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6">
-        <f>G62+J62</f>
+      <c r="K62" s="6" t="n">
+        <f aca="false">G62+J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="9"/>
@@ -4289,34 +3272,34 @@
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" ht="12.9" customHeight="1">
-      <c r="A63" t="s" s="2">
+    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
-        <f>ROUND((C63+D63+E63+F63)*5/4,2)</f>
+      <c r="C63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <f aca="false">ROUND((C63+D63+E63+F63)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="6">
-        <f>G63+J63</f>
+      <c r="K63" s="6" t="n">
+        <f aca="false">G63+J63</f>
         <v>0</v>
       </c>
       <c r="L63" s="9"/>
@@ -4328,26 +3311,26 @@
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" ht="12.9" customHeight="1">
-      <c r="A64" t="s" s="2">
+    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="6">
-        <f>ROUND((C64+D64+E64+F64)*5/4,2)</f>
+      <c r="G64" s="6" t="n">
+        <f aca="false">ROUND((C64+D64+E64+F64)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6">
-        <f>G64+J64</f>
+      <c r="K64" s="6" t="n">
+        <f aca="false">G64+J64</f>
         <v>0</v>
       </c>
       <c r="L64" s="9"/>
@@ -4359,26 +3342,26 @@
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" ht="12.9" customHeight="1">
-      <c r="A65" t="s" s="2">
+    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="B65" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="6">
-        <f>ROUND((C65+D65+E65+F65)*5/4,2)</f>
+      <c r="G65" s="6" t="n">
+        <f aca="false">ROUND((C65+D65+E65+F65)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="6">
-        <f>G65+J65</f>
+      <c r="K65" s="6" t="n">
+        <f aca="false">G65+J65</f>
         <v>0</v>
       </c>
       <c r="L65" s="9"/>
@@ -4390,26 +3373,26 @@
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" ht="12.9" customHeight="1">
-      <c r="A66" t="s" s="2">
+    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="6">
-        <f>ROUND((C66+D66+E66+F66)*5/4,2)</f>
+      <c r="G66" s="6" t="n">
+        <f aca="false">ROUND((C66+D66+E66+F66)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="6">
-        <f>G66+J66</f>
+      <c r="K66" s="6" t="n">
+        <f aca="false">G66+J66</f>
         <v>0</v>
       </c>
       <c r="L66" s="9"/>
@@ -4421,26 +3404,26 @@
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" ht="12.9" customHeight="1">
-      <c r="A67" t="s" s="2">
+    <row r="67" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="6">
-        <f>ROUND((C67+D67+E67+F67)*5/4,2)</f>
+      <c r="G67" s="6" t="n">
+        <f aca="false">ROUND((C67+D67+E67+F67)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="6">
-        <f>G67+J67</f>
+      <c r="K67" s="6" t="n">
+        <f aca="false">G67+J67</f>
         <v>0</v>
       </c>
       <c r="L67" s="9"/>
@@ -4452,26 +3435,26 @@
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" ht="12.9" customHeight="1">
-      <c r="A68" t="s" s="2">
+    <row r="68" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="6">
-        <f>ROUND((C68+D68+E68+F68)*5/4,2)</f>
+      <c r="G68" s="6" t="n">
+        <f aca="false">ROUND((C68+D68+E68+F68)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6">
-        <f>G68+J68</f>
+      <c r="K68" s="6" t="n">
+        <f aca="false">G68+J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="9"/>
@@ -4483,26 +3466,26 @@
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" ht="12.9" customHeight="1">
-      <c r="A69" t="s" s="2">
+    <row r="69" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="B69" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="6">
-        <f>ROUND((C69+D69+E69+F69)*5/4,2)</f>
+      <c r="G69" s="6" t="n">
+        <f aca="false">ROUND((C69+D69+E69+F69)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="6">
-        <f>G69+J69</f>
+      <c r="K69" s="6" t="n">
+        <f aca="false">G69+J69</f>
         <v>0</v>
       </c>
       <c r="L69" s="9"/>
@@ -4514,26 +3497,26 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" ht="12.9" customHeight="1">
-      <c r="A70" t="s" s="2">
+    <row r="70" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="6">
-        <f>ROUND((C70+D70+E70+F70)*5/4,2)</f>
+      <c r="G70" s="6" t="n">
+        <f aca="false">ROUND((C70+D70+E70+F70)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6">
-        <f>G70+J70</f>
+      <c r="K70" s="6" t="n">
+        <f aca="false">G70+J70</f>
         <v>0</v>
       </c>
       <c r="L70" s="9"/>
@@ -4545,26 +3528,26 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" ht="12.9" customHeight="1">
-      <c r="A71" t="s" s="2">
+    <row r="71" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="6">
-        <f>ROUND((C71+D71+E71+F71)*5/4,2)</f>
+      <c r="G71" s="6" t="n">
+        <f aca="false">ROUND((C71+D71+E71+F71)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="6">
-        <f>G71+J71</f>
+      <c r="K71" s="6" t="n">
+        <f aca="false">G71+J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="9"/>
@@ -4576,26 +3559,26 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" ht="12.9" customHeight="1">
-      <c r="A72" t="s" s="2">
+    <row r="72" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="6">
-        <f>ROUND((C72+D72+E72+F72)*5/4,2)</f>
+      <c r="G72" s="6" t="n">
+        <f aca="false">ROUND((C72+D72+E72+F72)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6">
-        <f>G72+J72</f>
+      <c r="K72" s="6" t="n">
+        <f aca="false">G72+J72</f>
         <v>0</v>
       </c>
       <c r="L72" s="9"/>
@@ -4607,26 +3590,26 @@
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" ht="12.9" customHeight="1">
-      <c r="A73" t="s" s="2">
+    <row r="73" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="6">
-        <f>ROUND((C73+D73+E73+F73)*5/4,2)</f>
+      <c r="G73" s="6" t="n">
+        <f aca="false">ROUND((C73+D73+E73+F73)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6">
-        <f>G73+J73</f>
+      <c r="K73" s="6" t="n">
+        <f aca="false">G73+J73</f>
         <v>0</v>
       </c>
       <c r="L73" s="9"/>
@@ -4638,26 +3621,26 @@
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" ht="12.9" customHeight="1">
-      <c r="A74" t="s" s="2">
+    <row r="74" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="6">
-        <f>ROUND((C74+D74+E74+F74)*5/4,2)</f>
+      <c r="G74" s="6" t="n">
+        <f aca="false">ROUND((C74+D74+E74+F74)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6">
-        <f>G74+J74</f>
+      <c r="K74" s="6" t="n">
+        <f aca="false">G74+J74</f>
         <v>0</v>
       </c>
       <c r="L74" s="9"/>
@@ -4669,26 +3652,26 @@
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" ht="12.9" customHeight="1">
-      <c r="A75" t="s" s="2">
+    <row r="75" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="6">
-        <f>ROUND((C75+D75+E75+F75)*5/4,2)</f>
+      <c r="G75" s="6" t="n">
+        <f aca="false">ROUND((C75+D75+E75+F75)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6">
-        <f>G75+J75</f>
+      <c r="K75" s="6" t="n">
+        <f aca="false">G75+J75</f>
         <v>0</v>
       </c>
       <c r="L75" s="9"/>
@@ -4700,26 +3683,26 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" ht="12.9" customHeight="1">
-      <c r="A76" t="s" s="2">
+    <row r="76" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="6">
-        <f>ROUND((C76+D76+E76+F76)*5/4,2)</f>
+      <c r="G76" s="6" t="n">
+        <f aca="false">ROUND((C76+D76+E76+F76)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="6">
-        <f>G76+J76</f>
+      <c r="K76" s="6" t="n">
+        <f aca="false">G76+J76</f>
         <v>0</v>
       </c>
       <c r="L76" s="9"/>
@@ -4731,26 +3714,26 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" ht="12.9" customHeight="1">
-      <c r="A77" t="s" s="2">
+    <row r="77" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="6">
-        <f>ROUND((C77+D77+E77+F77)*5/4,2)</f>
+      <c r="G77" s="6" t="n">
+        <f aca="false">ROUND((C77+D77+E77+F77)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6">
-        <f>G77+J77</f>
+      <c r="K77" s="6" t="n">
+        <f aca="false">G77+J77</f>
         <v>0</v>
       </c>
       <c r="L77" s="9"/>
@@ -4762,26 +3745,26 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" ht="12.9" customHeight="1">
-      <c r="A78" t="s" s="2">
+    <row r="78" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="6">
-        <f>ROUND((C78+D78+E78+F78)*5/4,2)</f>
+      <c r="G78" s="6" t="n">
+        <f aca="false">ROUND((C78+D78+E78+F78)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6">
-        <f>G78+J78</f>
+      <c r="K78" s="6" t="n">
+        <f aca="false">G78+J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="9"/>
@@ -4793,26 +3776,26 @@
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" ht="12.9" customHeight="1">
-      <c r="A79" t="s" s="2">
+    <row r="79" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="6">
-        <f>ROUND((C79+D79+E79+F79)*5/4,2)</f>
+      <c r="G79" s="6" t="n">
+        <f aca="false">ROUND((C79+D79+E79+F79)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6">
-        <f>G79+J79</f>
+      <c r="K79" s="6" t="n">
+        <f aca="false">G79+J79</f>
         <v>0</v>
       </c>
       <c r="L79" s="9"/>
@@ -4824,26 +3807,26 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" ht="12.9" customHeight="1">
-      <c r="A80" t="s" s="2">
+    <row r="80" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="6">
-        <f>ROUND((C80+D80+E80+F80)*5/4,2)</f>
+      <c r="G80" s="6" t="n">
+        <f aca="false">ROUND((C80+D80+E80+F80)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6">
-        <f>G80+J80</f>
+      <c r="K80" s="6" t="n">
+        <f aca="false">G80+J80</f>
         <v>0</v>
       </c>
       <c r="L80" s="10"/>
@@ -4855,26 +3838,26 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" ht="12.9" customHeight="1">
-      <c r="A81" t="s" s="2">
+    <row r="81" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="6">
-        <f>ROUND((C81+D81+E81+F81)*5/4,2)</f>
+      <c r="G81" s="6" t="n">
+        <f aca="false">ROUND((C81+D81+E81+F81)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6">
-        <f>G81+J81</f>
+      <c r="K81" s="6" t="n">
+        <f aca="false">G81+J81</f>
         <v>0</v>
       </c>
       <c r="L81" s="10"/>
@@ -4886,26 +3869,26 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" ht="12.9" customHeight="1">
-      <c r="A82" t="s" s="2">
+    <row r="82" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="6">
-        <f>ROUND((C82+D82+E82+F82)*5/4,2)</f>
+      <c r="G82" s="6" t="n">
+        <f aca="false">ROUND((C82+D82+E82+F82)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6">
-        <f>G82+J82</f>
+      <c r="K82" s="6" t="n">
+        <f aca="false">G82+J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="10"/>
@@ -4917,26 +3900,26 @@
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" ht="12.9" customHeight="1">
-      <c r="A83" t="s" s="2">
+    <row r="83" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="6">
-        <f>ROUND((C83+D83+E83+F83)*5/4,2)</f>
+      <c r="G83" s="6" t="n">
+        <f aca="false">ROUND((C83+D83+E83+F83)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="6">
-        <f>G83+J83</f>
+      <c r="K83" s="6" t="n">
+        <f aca="false">G83+J83</f>
         <v>0</v>
       </c>
       <c r="L83" s="10"/>
@@ -4948,26 +3931,26 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" ht="12.9" customHeight="1">
-      <c r="A84" t="s" s="2">
+    <row r="84" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="6">
-        <f>ROUND((C84+D84+E84+F84)*5/4,2)</f>
+      <c r="G84" s="6" t="n">
+        <f aca="false">ROUND((C84+D84+E84+F84)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6">
-        <f>G84+J84</f>
+      <c r="K84" s="6" t="n">
+        <f aca="false">G84+J84</f>
         <v>0</v>
       </c>
       <c r="L84" s="10"/>
@@ -4979,26 +3962,26 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" ht="12.9" customHeight="1">
-      <c r="A85" t="s" s="2">
+    <row r="85" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="6">
-        <f>ROUND((C85+D85+E85+F85)*5/4,2)</f>
+      <c r="G85" s="6" t="n">
+        <f aca="false">ROUND((C85+D85+E85+F85)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6">
-        <f>G85+J85</f>
+      <c r="K85" s="6" t="n">
+        <f aca="false">G85+J85</f>
         <v>0</v>
       </c>
       <c r="L85" s="10"/>
@@ -5010,26 +3993,26 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" ht="12.9" customHeight="1">
-      <c r="A86" t="s" s="2">
+    <row r="86" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B86" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="6">
-        <f>ROUND((C86+D86+E86+F86)*5/4,2)</f>
+      <c r="G86" s="6" t="n">
+        <f aca="false">ROUND((C86+D86+E86+F86)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6">
-        <f>G86+J86</f>
+      <c r="K86" s="6" t="n">
+        <f aca="false">G86+J86</f>
         <v>0</v>
       </c>
       <c r="L86" s="10"/>
@@ -5041,26 +4024,26 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" ht="12.9" customHeight="1">
-      <c r="A87" t="s" s="2">
+    <row r="87" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="6">
-        <f>ROUND((C87+D87+E87+F87)*5/4,2)</f>
+      <c r="G87" s="6" t="n">
+        <f aca="false">ROUND((C87+D87+E87+F87)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="6">
-        <f>G87+J87</f>
+      <c r="K87" s="6" t="n">
+        <f aca="false">G87+J87</f>
         <v>0</v>
       </c>
       <c r="L87" s="10"/>
@@ -5072,26 +4055,26 @@
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" ht="12.9" customHeight="1">
-      <c r="A88" t="s" s="2">
+    <row r="88" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="6">
-        <f>ROUND((C88+D88+E88+F88)*5/4,2)</f>
+      <c r="G88" s="6" t="n">
+        <f aca="false">ROUND((C88+D88+E88+F88)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="6">
-        <f>G88+J88</f>
+      <c r="K88" s="6" t="n">
+        <f aca="false">G88+J88</f>
         <v>0</v>
       </c>
       <c r="L88" s="10"/>
@@ -5103,26 +4086,26 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" ht="12.9" customHeight="1">
-      <c r="A89" t="s" s="2">
+    <row r="89" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="B89" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="6">
-        <f>ROUND((C89+D89+E89+F89)*5/4,2)</f>
+      <c r="G89" s="6" t="n">
+        <f aca="false">ROUND((C89+D89+E89+F89)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="6">
-        <f>G89+J89</f>
+      <c r="K89" s="6" t="n">
+        <f aca="false">G89+J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="10"/>
@@ -5134,26 +4117,26 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" ht="12.9" customHeight="1">
-      <c r="A90" t="s" s="2">
+    <row r="90" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="6">
-        <f>ROUND((C90+D90+E90+F90)*5/4,2)</f>
+      <c r="G90" s="6" t="n">
+        <f aca="false">ROUND((C90+D90+E90+F90)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6">
-        <f>G90+J90</f>
+      <c r="K90" s="6" t="n">
+        <f aca="false">G90+J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="9"/>
@@ -5165,26 +4148,26 @@
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" ht="12.9" customHeight="1">
-      <c r="A91" t="s" s="2">
+    <row r="91" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="6">
-        <f>ROUND((C91+D91+E91+F91)*5/4,2)</f>
+      <c r="G91" s="6" t="n">
+        <f aca="false">ROUND((C91+D91+E91+F91)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6">
-        <f>G91+J91</f>
+      <c r="K91" s="6" t="n">
+        <f aca="false">G91+J91</f>
         <v>0</v>
       </c>
       <c r="L91" s="10"/>
@@ -5196,26 +4179,26 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" ht="12.9" customHeight="1">
-      <c r="A92" t="s" s="2">
+    <row r="92" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="6">
-        <f>ROUND((C92+D92+E92+F92)*5/4,2)</f>
+      <c r="G92" s="6" t="n">
+        <f aca="false">ROUND((C92+D92+E92+F92)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="6">
-        <f>G92+J92</f>
+      <c r="K92" s="6" t="n">
+        <f aca="false">G92+J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="10"/>
@@ -5227,26 +4210,26 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" ht="12.9" customHeight="1">
-      <c r="A93" t="s" s="2">
+    <row r="93" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="6">
-        <f>ROUND((C93+D93+E93+F93)*5/4,2)</f>
+      <c r="G93" s="6" t="n">
+        <f aca="false">ROUND((C93+D93+E93+F93)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="6">
-        <f>G93+J93</f>
+      <c r="K93" s="6" t="n">
+        <f aca="false">G93+J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="10"/>
@@ -5258,26 +4241,26 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" ht="12.9" customHeight="1">
-      <c r="A94" t="s" s="2">
+    <row r="94" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="6">
-        <f>ROUND((C94+D94+E94+F94)*5/4,2)</f>
+      <c r="G94" s="6" t="n">
+        <f aca="false">ROUND((C94+D94+E94+F94)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="6">
-        <f>G94+J94</f>
+      <c r="K94" s="6" t="n">
+        <f aca="false">G94+J94</f>
         <v>0</v>
       </c>
       <c r="L94" s="10"/>
@@ -5289,26 +4272,26 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" ht="12.9" customHeight="1">
-      <c r="A95" t="s" s="2">
+    <row r="95" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="6">
-        <f>ROUND((C95+D95+E95+F95)*5/4,2)</f>
+      <c r="G95" s="6" t="n">
+        <f aca="false">ROUND((C95+D95+E95+F95)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6">
-        <f>G95+J95</f>
+      <c r="K95" s="6" t="n">
+        <f aca="false">G95+J95</f>
         <v>0</v>
       </c>
       <c r="L95" s="10"/>
@@ -5320,26 +4303,26 @@
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" ht="12.9" customHeight="1">
-      <c r="A96" t="s" s="2">
+    <row r="96" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="6">
-        <f>ROUND((C96+D96+E96+F96)*5/4,2)</f>
+      <c r="G96" s="6" t="n">
+        <f aca="false">ROUND((C96+D96+E96+F96)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="6">
-        <f>G96+J96</f>
+      <c r="K96" s="6" t="n">
+        <f aca="false">G96+J96</f>
         <v>0</v>
       </c>
       <c r="L96" s="10"/>
@@ -5351,26 +4334,26 @@
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" ht="12.9" customHeight="1">
-      <c r="A97" t="s" s="2">
+    <row r="97" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B97" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="6">
-        <f>ROUND((C97+D97+E97+F97)*5/4,2)</f>
+      <c r="G97" s="6" t="n">
+        <f aca="false">ROUND((C97+D97+E97+F97)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="6">
-        <f>G97+J97</f>
+      <c r="K97" s="6" t="n">
+        <f aca="false">G97+J97</f>
         <v>0</v>
       </c>
       <c r="L97" s="10"/>
@@ -5382,26 +4365,26 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" ht="12.9" customHeight="1">
-      <c r="A98" t="s" s="2">
+    <row r="98" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="6">
-        <f>ROUND((C98+D98+E98+F98)*5/4,2)</f>
+      <c r="G98" s="6" t="n">
+        <f aca="false">ROUND((C98+D98+E98+F98)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="6">
-        <f>G98+J98</f>
+      <c r="K98" s="6" t="n">
+        <f aca="false">G98+J98</f>
         <v>0</v>
       </c>
       <c r="L98" s="9"/>
@@ -5413,26 +4396,26 @@
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" ht="12.9" customHeight="1">
-      <c r="A99" t="s" s="2">
+    <row r="99" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="6">
-        <f>ROUND((C99+D99+E99+F99)*5/4,2)</f>
+      <c r="G99" s="6" t="n">
+        <f aca="false">ROUND((C99+D99+E99+F99)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="6">
-        <f>G99+J99</f>
+      <c r="K99" s="6" t="n">
+        <f aca="false">G99+J99</f>
         <v>0</v>
       </c>
       <c r="L99" s="10"/>
@@ -5444,26 +4427,26 @@
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" ht="12.9" customHeight="1">
-      <c r="A100" t="s" s="2">
+    <row r="100" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="6">
-        <f>ROUND((C100+D100+E100+F100)*5/4,2)</f>
+      <c r="G100" s="6" t="n">
+        <f aca="false">ROUND((C100+D100+E100+F100)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="6">
-        <f>G100+J100</f>
+      <c r="K100" s="6" t="n">
+        <f aca="false">G100+J100</f>
         <v>0</v>
       </c>
       <c r="L100" s="10"/>
@@ -5475,26 +4458,26 @@
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" ht="12.9" customHeight="1">
-      <c r="A101" t="s" s="2">
+    <row r="101" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="6">
-        <f>ROUND((C101+D101+E101+F101)*5/4,2)</f>
+      <c r="G101" s="6" t="n">
+        <f aca="false">ROUND((C101+D101+E101+F101)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="6">
-        <f>G101+J101</f>
+      <c r="K101" s="6" t="n">
+        <f aca="false">G101+J101</f>
         <v>0</v>
       </c>
       <c r="L101" s="10"/>
@@ -5506,34 +4489,34 @@
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" ht="12.9" customHeight="1">
-      <c r="A102" t="s" s="2">
+    <row r="102" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C102" s="5">
-        <v>0</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <f>ROUND((C102+D102+E102+F102)*5/4,2)</f>
+      <c r="C102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <f aca="false">ROUND((C102+D102+E102+F102)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="6">
-        <f>G102+J102</f>
+      <c r="K102" s="6" t="n">
+        <f aca="false">G102+J102</f>
         <v>0</v>
       </c>
       <c r="L102" s="9"/>
@@ -5545,26 +4528,26 @@
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" ht="12.9" customHeight="1">
-      <c r="A103" t="s" s="2">
+    <row r="103" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="6">
-        <f>ROUND((C103+D103+E103+F103)*5/4,2)</f>
+      <c r="G103" s="6" t="n">
+        <f aca="false">ROUND((C103+D103+E103+F103)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="6">
-        <f>G103+J103</f>
+      <c r="K103" s="6" t="n">
+        <f aca="false">G103+J103</f>
         <v>0</v>
       </c>
       <c r="L103" s="10"/>
@@ -5576,26 +4559,26 @@
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" ht="12.9" customHeight="1">
-      <c r="A104" t="s" s="2">
+    <row r="104" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="6">
-        <f>ROUND((C104+D104+E104+F104)*5/4,2)</f>
+      <c r="G104" s="6" t="n">
+        <f aca="false">ROUND((C104+D104+E104+F104)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="6">
-        <f>G104+J104</f>
+      <c r="K104" s="6" t="n">
+        <f aca="false">G104+J104</f>
         <v>0</v>
       </c>
       <c r="L104" s="10"/>
@@ -5607,26 +4590,26 @@
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" ht="12.9" customHeight="1">
-      <c r="A105" t="s" s="2">
+    <row r="105" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="6">
-        <f>ROUND((C105+D105+E105+F105)*5/4,2)</f>
+      <c r="G105" s="6" t="n">
+        <f aca="false">ROUND((C105+D105+E105+F105)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="6">
-        <f>G105+J105</f>
+      <c r="K105" s="6" t="n">
+        <f aca="false">G105+J105</f>
         <v>0</v>
       </c>
       <c r="L105" s="10"/>
@@ -5638,26 +4621,26 @@
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" ht="12.9" customHeight="1">
-      <c r="A106" t="s" s="2">
+    <row r="106" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="6">
-        <f>ROUND((C106+D106+E106+F106)*5/4,2)</f>
+      <c r="G106" s="6" t="n">
+        <f aca="false">ROUND((C106+D106+E106+F106)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="6">
-        <f>G106+J106</f>
+      <c r="K106" s="6" t="n">
+        <f aca="false">G106+J106</f>
         <v>0</v>
       </c>
       <c r="L106" s="10"/>
@@ -5669,26 +4652,26 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" ht="12.9" customHeight="1">
-      <c r="A107" t="s" s="2">
+    <row r="107" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="6">
-        <f>ROUND((C107+D107+E107+F107)*5/4,2)</f>
+      <c r="G107" s="6" t="n">
+        <f aca="false">ROUND((C107+D107+E107+F107)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="6">
-        <f>G107+J107</f>
+      <c r="K107" s="6" t="n">
+        <f aca="false">G107+J107</f>
         <v>0</v>
       </c>
       <c r="L107" s="10"/>
@@ -5700,26 +4683,26 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" ht="12.9" customHeight="1">
-      <c r="A108" t="s" s="2">
+    <row r="108" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="6">
-        <f>ROUND((C108+D108+E108+F108)*5/4,2)</f>
+      <c r="G108" s="6" t="n">
+        <f aca="false">ROUND((C108+D108+E108+F108)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="6">
-        <f>G108+J108</f>
+      <c r="K108" s="6" t="n">
+        <f aca="false">G108+J108</f>
         <v>0</v>
       </c>
       <c r="L108" s="10"/>
@@ -5731,26 +4714,26 @@
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" ht="12.9" customHeight="1">
-      <c r="A109" t="s" s="2">
+    <row r="109" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="6">
-        <f>ROUND((C109+D109+E109+F109)*5/4,2)</f>
+      <c r="G109" s="6" t="n">
+        <f aca="false">ROUND((C109+D109+E109+F109)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="6">
-        <f>G109+J109</f>
+      <c r="K109" s="6" t="n">
+        <f aca="false">G109+J109</f>
         <v>0</v>
       </c>
       <c r="L109" s="9"/>
@@ -5762,26 +4745,26 @@
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" ht="12.9" customHeight="1">
-      <c r="A110" t="s" s="2">
+    <row r="110" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B110" t="s" s="3">
+      <c r="B110" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="6">
-        <f>ROUND((C110+D110+E110+F110)*5/4,2)</f>
+      <c r="G110" s="6" t="n">
+        <f aca="false">ROUND((C110+D110+E110+F110)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="6">
-        <f>G110+J110</f>
+      <c r="K110" s="6" t="n">
+        <f aca="false">G110+J110</f>
         <v>0</v>
       </c>
       <c r="L110" s="10"/>
@@ -5793,26 +4776,26 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" ht="12.9" customHeight="1">
-      <c r="A111" t="s" s="2">
+    <row r="111" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="6">
-        <f>ROUND((C111+D111+E111+F111)*5/4,2)</f>
+      <c r="G111" s="6" t="n">
+        <f aca="false">ROUND((C111+D111+E111+F111)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="6">
-        <f>G111+J111</f>
+      <c r="K111" s="6" t="n">
+        <f aca="false">G111+J111</f>
         <v>0</v>
       </c>
       <c r="L111" s="9"/>
@@ -5824,26 +4807,26 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" ht="12.9" customHeight="1">
-      <c r="A112" t="s" s="2">
+    <row r="112" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="6">
-        <f>ROUND((C112+D112+E112+F112)*5/4,2)</f>
+      <c r="G112" s="6" t="n">
+        <f aca="false">ROUND((C112+D112+E112+F112)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="6">
-        <f>G112+J112</f>
+      <c r="K112" s="6" t="n">
+        <f aca="false">G112+J112</f>
         <v>0</v>
       </c>
       <c r="L112" s="10"/>
@@ -5855,26 +4838,26 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" ht="12.9" customHeight="1">
-      <c r="A113" t="s" s="2">
+    <row r="113" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="6">
-        <f>ROUND((C113+D113+E113+F113)*5/4,2)</f>
+      <c r="G113" s="6" t="n">
+        <f aca="false">ROUND((C113+D113+E113+F113)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="6">
-        <f>G113+J113</f>
+      <c r="K113" s="6" t="n">
+        <f aca="false">G113+J113</f>
         <v>0</v>
       </c>
       <c r="L113" s="10"/>
@@ -5886,26 +4869,26 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" ht="12.9" customHeight="1">
-      <c r="A114" t="s" s="2">
+    <row r="114" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="6">
-        <f>ROUND((C114+D114+E114+F114)*5/4,2)</f>
+      <c r="G114" s="6" t="n">
+        <f aca="false">ROUND((C114+D114+E114+F114)*5/4,2)</f>
         <v>0</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="6">
-        <f>G114+J114</f>
+      <c r="K114" s="6" t="n">
+        <f aca="false">G114+J114</f>
         <v>0</v>
       </c>
       <c r="L114" s="10"/>
@@ -5917,7 +4900,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" ht="12.9" customHeight="1">
+    <row r="115" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="11"/>
       <c r="C115" s="4"/>
@@ -5938,7 +4921,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" ht="12.9" customHeight="1">
+    <row r="116" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="11"/>
       <c r="C116" s="4"/>
@@ -5959,7 +4942,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" ht="12.9" customHeight="1">
+    <row r="117" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="11"/>
       <c r="C117" s="4"/>
@@ -5980,7 +4963,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" ht="12.9" customHeight="1">
+    <row r="118" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="11"/>
       <c r="C118" s="4"/>
@@ -6001,7 +4984,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" ht="12.9" customHeight="1">
+    <row r="119" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="11"/>
       <c r="C119" s="4"/>
@@ -6022,7 +5005,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
     </row>
-    <row r="120" ht="12.9" customHeight="1">
+    <row r="120" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="11"/>
       <c r="C120" s="4"/>
@@ -6043,7 +5026,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
     </row>
-    <row r="121" ht="12.9" customHeight="1">
+    <row r="121" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="11"/>
       <c r="C121" s="4"/>
@@ -6064,7 +5047,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
     </row>
-    <row r="122" ht="12.9" customHeight="1">
+    <row r="122" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="11"/>
       <c r="C122" s="4"/>
@@ -6085,7 +5068,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
     </row>
-    <row r="123" ht="12.9" customHeight="1">
+    <row r="123" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="11"/>
       <c r="C123" s="4"/>
@@ -6106,7 +5089,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
     </row>
-    <row r="124" ht="12.9" customHeight="1">
+    <row r="124" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="11"/>
       <c r="C124" s="4"/>
@@ -6127,7 +5110,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
     </row>
-    <row r="125" ht="12.9" customHeight="1">
+    <row r="125" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="11"/>
       <c r="C125" s="4"/>
@@ -6148,7 +5131,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
     </row>
-    <row r="126" ht="12.9" customHeight="1">
+    <row r="126" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="11"/>
       <c r="C126" s="4"/>
@@ -6169,7 +5152,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
     </row>
-    <row r="127" ht="12.9" customHeight="1">
+    <row r="127" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="11"/>
       <c r="C127" s="4"/>
@@ -6190,7 +5173,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
     </row>
-    <row r="128" ht="12.9" customHeight="1">
+    <row r="128" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="11"/>
       <c r="C128" s="4"/>
@@ -6211,7 +5194,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
     </row>
-    <row r="129" ht="12.9" customHeight="1">
+    <row r="129" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="11"/>
       <c r="C129" s="4"/>
@@ -6232,7 +5215,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
     </row>
-    <row r="130" ht="12.9" customHeight="1">
+    <row r="130" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="11"/>
       <c r="C130" s="4"/>
@@ -6253,7 +5236,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
     </row>
-    <row r="131" ht="12.9" customHeight="1">
+    <row r="131" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="11"/>
       <c r="C131" s="4"/>
@@ -6274,7 +5257,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
     </row>
-    <row r="132" ht="12.9" customHeight="1">
+    <row r="132" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="11"/>
       <c r="C132" s="4"/>
@@ -6295,7 +5278,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
     </row>
-    <row r="133" ht="12.9" customHeight="1">
+    <row r="133" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="11"/>
       <c r="C133" s="4"/>
@@ -6316,7 +5299,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
     </row>
-    <row r="134" ht="12.9" customHeight="1">
+    <row r="134" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="11"/>
       <c r="C134" s="4"/>
@@ -6337,7 +5320,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
     </row>
-    <row r="135" ht="12.9" customHeight="1">
+    <row r="135" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="11"/>
       <c r="C135" s="4"/>
@@ -6358,7 +5341,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
     </row>
-    <row r="136" ht="12.9" customHeight="1">
+    <row r="136" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="11"/>
       <c r="C136" s="4"/>
@@ -6379,7 +5362,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
     </row>
-    <row r="137" ht="12.9" customHeight="1">
+    <row r="137" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="11"/>
       <c r="C137" s="4"/>
@@ -6400,7 +5383,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
     </row>
-    <row r="138" ht="12.9" customHeight="1">
+    <row r="138" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="11"/>
       <c r="C138" s="4"/>
@@ -6421,7 +5404,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
     </row>
-    <row r="139" ht="12.9" customHeight="1">
+    <row r="139" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="11"/>
       <c r="C139" s="4"/>
@@ -6442,7 +5425,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
     </row>
-    <row r="140" ht="12.9" customHeight="1">
+    <row r="140" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="11"/>
       <c r="C140" s="4"/>
@@ -6463,7 +5446,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
     </row>
-    <row r="141" ht="12.9" customHeight="1">
+    <row r="141" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="11"/>
       <c r="C141" s="4"/>
@@ -6484,7 +5467,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
     </row>
-    <row r="142" ht="12.9" customHeight="1">
+    <row r="142" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="11"/>
       <c r="C142" s="4"/>
@@ -6505,7 +5488,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
     </row>
-    <row r="143" ht="12.9" customHeight="1">
+    <row r="143" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="11"/>
       <c r="C143" s="4"/>
@@ -6526,7 +5509,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
     </row>
-    <row r="144" ht="12.9" customHeight="1">
+    <row r="144" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="11"/>
       <c r="C144" s="4"/>
@@ -6547,7 +5530,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
     </row>
-    <row r="145" ht="12.9" customHeight="1">
+    <row r="145" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="11"/>
       <c r="C145" s="4"/>
@@ -6568,7 +5551,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
     </row>
-    <row r="146" ht="12.9" customHeight="1">
+    <row r="146" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="11"/>
       <c r="C146" s="4"/>
@@ -6589,7 +5572,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
     </row>
-    <row r="147" ht="12.9" customHeight="1">
+    <row r="147" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="11"/>
       <c r="C147" s="4"/>
@@ -6610,7 +5593,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
     </row>
-    <row r="148" ht="12.9" customHeight="1">
+    <row r="148" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="11"/>
       <c r="C148" s="4"/>
@@ -6631,7 +5614,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
     </row>
-    <row r="149" ht="12.9" customHeight="1">
+    <row r="149" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="11"/>
       <c r="C149" s="4"/>
@@ -6652,7 +5635,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
     </row>
-    <row r="150" ht="12.9" customHeight="1">
+    <row r="150" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="11"/>
       <c r="C150" s="4"/>
@@ -6673,7 +5656,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
     </row>
-    <row r="151" ht="12.9" customHeight="1">
+    <row r="151" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="11"/>
       <c r="C151" s="4"/>
@@ -6694,7 +5677,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
     </row>
-    <row r="152" ht="12.9" customHeight="1">
+    <row r="152" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="11"/>
       <c r="C152" s="4"/>
@@ -6715,7 +5698,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" ht="12.9" customHeight="1">
+    <row r="153" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="11"/>
       <c r="C153" s="4"/>
@@ -6736,7 +5719,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
     </row>
-    <row r="154" ht="12.9" customHeight="1">
+    <row r="154" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="11"/>
       <c r="C154" s="4"/>
@@ -6757,7 +5740,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
     </row>
-    <row r="155" ht="12.9" customHeight="1">
+    <row r="155" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="11"/>
       <c r="C155" s="4"/>
@@ -6778,7 +5761,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" ht="12.9" customHeight="1">
+    <row r="156" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="11"/>
       <c r="C156" s="4"/>
@@ -6799,7 +5782,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
     </row>
-    <row r="157" ht="12.9" customHeight="1">
+    <row r="157" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="11"/>
       <c r="C157" s="4"/>
@@ -6820,7 +5803,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
     </row>
-    <row r="158" ht="12.9" customHeight="1">
+    <row r="158" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="11"/>
       <c r="C158" s="4"/>
@@ -6841,7 +5824,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
     </row>
-    <row r="159" ht="12.9" customHeight="1">
+    <row r="159" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="11"/>
       <c r="C159" s="4"/>
@@ -6862,7 +5845,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
     </row>
-    <row r="160" ht="12.9" customHeight="1">
+    <row r="160" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="11"/>
       <c r="C160" s="4"/>
@@ -6883,7 +5866,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
     </row>
-    <row r="161" ht="12.9" customHeight="1">
+    <row r="161" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="11"/>
       <c r="C161" s="4"/>
@@ -6904,7 +5887,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
     </row>
-    <row r="162" ht="12.9" customHeight="1">
+    <row r="162" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="11"/>
       <c r="C162" s="4"/>
@@ -6925,7 +5908,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
     </row>
-    <row r="163" ht="12.9" customHeight="1">
+    <row r="163" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="11"/>
       <c r="C163" s="4"/>
@@ -6946,7 +5929,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
     </row>
-    <row r="164" ht="12.9" customHeight="1">
+    <row r="164" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="11"/>
       <c r="C164" s="4"/>
@@ -6967,7 +5950,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
     </row>
-    <row r="165" ht="12.9" customHeight="1">
+    <row r="165" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="11"/>
       <c r="C165" s="4"/>
@@ -6988,7 +5971,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="7"/>
     </row>
-    <row r="166" ht="12.9" customHeight="1">
+    <row r="166" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="11"/>
       <c r="C166" s="4"/>
@@ -7009,7 +5992,7 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" ht="12.9" customHeight="1">
+    <row r="167" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="11"/>
       <c r="C167" s="4"/>
@@ -7030,7 +6013,7 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" ht="12.9" customHeight="1">
+    <row r="168" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="11"/>
       <c r="C168" s="4"/>
@@ -7051,7 +6034,7 @@
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" ht="12.9" customHeight="1">
+    <row r="169" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="11"/>
       <c r="C169" s="4"/>
@@ -7072,7 +6055,7 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" ht="12.9" customHeight="1">
+    <row r="170" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="11"/>
       <c r="C170" s="4"/>
@@ -7093,7 +6076,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" ht="12.9" customHeight="1">
+    <row r="171" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="11"/>
       <c r="C171" s="4"/>
@@ -7114,7 +6097,7 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" ht="12.9" customHeight="1">
+    <row r="172" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="11"/>
       <c r="C172" s="4"/>
@@ -7135,7 +6118,7 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" ht="12.9" customHeight="1">
+    <row r="173" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="11"/>
       <c r="C173" s="4"/>
@@ -7156,7 +6139,7 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" ht="12.9" customHeight="1">
+    <row r="174" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="11"/>
       <c r="C174" s="4"/>
@@ -7177,7 +6160,7 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" ht="12.9" customHeight="1">
+    <row r="175" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="11"/>
       <c r="C175" s="4"/>
@@ -7198,7 +6181,7 @@
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" ht="12.9" customHeight="1">
+    <row r="176" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="11"/>
       <c r="C176" s="4"/>
@@ -7219,7 +6202,7 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" ht="12.9" customHeight="1">
+    <row r="177" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="11"/>
       <c r="C177" s="4"/>
@@ -7240,7 +6223,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" ht="12.9" customHeight="1">
+    <row r="178" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="11"/>
       <c r="C178" s="4"/>
@@ -7261,7 +6244,7 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" ht="12.9" customHeight="1">
+    <row r="179" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="11"/>
       <c r="C179" s="4"/>
@@ -7282,7 +6265,7 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" ht="12.9" customHeight="1">
+    <row r="180" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="11"/>
       <c r="C180" s="4"/>
@@ -7303,7 +6286,7 @@
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" ht="12.9" customHeight="1">
+    <row r="181" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="11"/>
       <c r="C181" s="4"/>
@@ -7324,7 +6307,7 @@
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" ht="12.9" customHeight="1">
+    <row r="182" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
       <c r="B182" s="11"/>
       <c r="C182" s="4"/>
@@ -7345,7 +6328,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" ht="12.9" customHeight="1">
+    <row r="183" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
       <c r="B183" s="11"/>
       <c r="C183" s="4"/>
@@ -7366,7 +6349,7 @@
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" ht="12.9" customHeight="1">
+    <row r="184" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4"/>
       <c r="B184" s="11"/>
       <c r="C184" s="4"/>
@@ -7387,7 +6370,7 @@
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" ht="12.9" customHeight="1">
+    <row r="185" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4"/>
       <c r="B185" s="11"/>
       <c r="C185" s="4"/>
@@ -7408,7 +6391,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" ht="12.9" customHeight="1">
+    <row r="186" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4"/>
       <c r="B186" s="11"/>
       <c r="C186" s="4"/>
@@ -7429,7 +6412,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" ht="12.9" customHeight="1">
+    <row r="187" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4"/>
       <c r="B187" s="11"/>
       <c r="C187" s="4"/>
@@ -7451,11 +6434,12 @@
       <c r="S187" s="4"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Sheet1</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;CSheet1</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>